--- a/data/pca/factorExposure/factorExposure_2012-02-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-02-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01564396186789742</v>
+        <v>0.01526342398695552</v>
       </c>
       <c r="C2">
-        <v>0.03107593805129001</v>
+        <v>0.02640352822424783</v>
       </c>
       <c r="D2">
-        <v>-0.005024721685350475</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.007681898112342903</v>
+      </c>
+      <c r="E2">
+        <v>-0.01537198524909138</v>
+      </c>
+      <c r="F2">
+        <v>-0.01150919444698217</v>
+      </c>
+      <c r="G2">
+        <v>-0.01628098949266169</v>
+      </c>
+      <c r="H2">
+        <v>0.05201435928045373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07376989480768416</v>
+        <v>0.08813864037874911</v>
       </c>
       <c r="C4">
-        <v>0.05401263314262306</v>
+        <v>0.0418321570589206</v>
       </c>
       <c r="D4">
-        <v>-0.08093329548500323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06386064402543652</v>
+      </c>
+      <c r="E4">
+        <v>-0.01057228685353336</v>
+      </c>
+      <c r="F4">
+        <v>-0.03895163167760896</v>
+      </c>
+      <c r="G4">
+        <v>-0.003700339678625383</v>
+      </c>
+      <c r="H4">
+        <v>-0.04134922579999988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1100265406466521</v>
+        <v>0.1194780430398613</v>
       </c>
       <c r="C6">
-        <v>0.05320664116252236</v>
+        <v>0.03475592533200247</v>
       </c>
       <c r="D6">
-        <v>0.0007051081184828794</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01436043728129721</v>
+      </c>
+      <c r="E6">
+        <v>0.01760700563708317</v>
+      </c>
+      <c r="F6">
+        <v>-0.05417327182536695</v>
+      </c>
+      <c r="G6">
+        <v>-0.03389991225879847</v>
+      </c>
+      <c r="H6">
+        <v>0.1173776034806121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.05181742204307957</v>
+        <v>0.06442552420843357</v>
       </c>
       <c r="C7">
-        <v>0.02727137769918327</v>
+        <v>0.01887211966775387</v>
       </c>
       <c r="D7">
-        <v>-0.04506481550835795</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04510982233899759</v>
+      </c>
+      <c r="E7">
+        <v>-0.03532343702570994</v>
+      </c>
+      <c r="F7">
+        <v>-0.03519578113992938</v>
+      </c>
+      <c r="G7">
+        <v>0.03803718575824023</v>
+      </c>
+      <c r="H7">
+        <v>-0.007620579076658768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03968590203505083</v>
+        <v>0.04128606991285635</v>
       </c>
       <c r="C8">
-        <v>0.01514586513008116</v>
+        <v>0.01097476182058182</v>
       </c>
       <c r="D8">
-        <v>-0.06024926496491579</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.0239284325924221</v>
+      </c>
+      <c r="E8">
+        <v>-0.0227979197472446</v>
+      </c>
+      <c r="F8">
+        <v>-0.05535992394642476</v>
+      </c>
+      <c r="G8">
+        <v>-0.05844108063552916</v>
+      </c>
+      <c r="H8">
+        <v>0.008363238468676546</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06904033019031577</v>
+        <v>0.0799358559366633</v>
       </c>
       <c r="C9">
-        <v>0.0421399841058752</v>
+        <v>0.02990257363229712</v>
       </c>
       <c r="D9">
-        <v>-0.07040173185525608</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06133838131190298</v>
+      </c>
+      <c r="E9">
+        <v>-0.03050581837054973</v>
+      </c>
+      <c r="F9">
+        <v>-0.03581193289222053</v>
+      </c>
+      <c r="G9">
+        <v>-0.01003817246413319</v>
+      </c>
+      <c r="H9">
+        <v>-0.04957647485703572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.0283798849889715</v>
+        <v>0.03299631011692238</v>
       </c>
       <c r="C10">
-        <v>0.02487898578687658</v>
+        <v>0.04065161025806504</v>
       </c>
       <c r="D10">
-        <v>0.1684425045394304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1715963491140151</v>
+      </c>
+      <c r="E10">
+        <v>-0.04043612590875023</v>
+      </c>
+      <c r="F10">
+        <v>-0.04908240057563192</v>
+      </c>
+      <c r="G10">
+        <v>0.0240298498406628</v>
+      </c>
+      <c r="H10">
+        <v>0.0376305750794039</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07254858123337653</v>
+        <v>0.0769206871099076</v>
       </c>
       <c r="C11">
-        <v>0.04489287415380878</v>
+        <v>0.02708374685745571</v>
       </c>
       <c r="D11">
-        <v>-0.05938732207150241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06324378876693892</v>
+      </c>
+      <c r="E11">
+        <v>0.004783673009624797</v>
+      </c>
+      <c r="F11">
+        <v>-0.02883951213758303</v>
+      </c>
+      <c r="G11">
+        <v>-0.0007857981639747943</v>
+      </c>
+      <c r="H11">
+        <v>-0.08799430599357343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.05975493376294082</v>
+        <v>0.06855588362275435</v>
       </c>
       <c r="C12">
-        <v>0.05225136828063166</v>
+        <v>0.03787138859096782</v>
       </c>
       <c r="D12">
-        <v>-0.04832958098609973</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04872426598424073</v>
+      </c>
+      <c r="E12">
+        <v>-0.0130983832006753</v>
+      </c>
+      <c r="F12">
+        <v>-0.02039386768354322</v>
+      </c>
+      <c r="G12">
+        <v>-0.003036469274139851</v>
+      </c>
+      <c r="H12">
+        <v>-0.04329084047039472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06160253023893594</v>
+        <v>0.0649369317572896</v>
       </c>
       <c r="C13">
-        <v>0.03666133893896455</v>
+        <v>0.02275217415387622</v>
       </c>
       <c r="D13">
-        <v>-0.06007786934505392</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04322275243756279</v>
+      </c>
+      <c r="E13">
+        <v>-0.01602128677230961</v>
+      </c>
+      <c r="F13">
+        <v>-0.008261778146641325</v>
+      </c>
+      <c r="G13">
+        <v>0.004270486175516146</v>
+      </c>
+      <c r="H13">
+        <v>-0.05506925490418662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03383203657734214</v>
+        <v>0.04085059413791849</v>
       </c>
       <c r="C14">
-        <v>0.03165360553497248</v>
+        <v>0.02838922907629048</v>
       </c>
       <c r="D14">
-        <v>-0.002533716383252487</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.007858089557462344</v>
+      </c>
+      <c r="E14">
+        <v>-0.03202124992510222</v>
+      </c>
+      <c r="F14">
+        <v>-0.01636773198991091</v>
+      </c>
+      <c r="G14">
+        <v>-0.00707733300350643</v>
+      </c>
+      <c r="H14">
+        <v>-0.05996828040299231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.04058860475959143</v>
+        <v>0.04047863690356461</v>
       </c>
       <c r="C15">
-        <v>0.009719389477775961</v>
+        <v>0.003753926933989609</v>
       </c>
       <c r="D15">
-        <v>-0.0171962283938275</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.00426315816833947</v>
+      </c>
+      <c r="E15">
+        <v>-0.03389757012340094</v>
+      </c>
+      <c r="F15">
+        <v>0.0003965645172447648</v>
+      </c>
+      <c r="G15">
+        <v>-0.02482497840093733</v>
+      </c>
+      <c r="H15">
+        <v>-0.03784647425179826</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06168217164233638</v>
+        <v>0.07136795232705058</v>
       </c>
       <c r="C16">
-        <v>0.04165665174124944</v>
+        <v>0.02857488675786481</v>
       </c>
       <c r="D16">
-        <v>-0.04815316454555949</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06120539613008802</v>
+      </c>
+      <c r="E16">
+        <v>-0.004176778377709051</v>
+      </c>
+      <c r="F16">
+        <v>-0.0266005664847082</v>
+      </c>
+      <c r="G16">
+        <v>0.003464553332017967</v>
+      </c>
+      <c r="H16">
+        <v>-0.05371858947609388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06328252414766425</v>
+        <v>0.06388944144256985</v>
       </c>
       <c r="C20">
-        <v>0.02330340985939999</v>
+        <v>0.008707753718565515</v>
       </c>
       <c r="D20">
-        <v>-0.05368983082900622</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03856243620813489</v>
+      </c>
+      <c r="E20">
+        <v>-0.01993503875763817</v>
+      </c>
+      <c r="F20">
+        <v>-0.02829572208789951</v>
+      </c>
+      <c r="G20">
+        <v>-0.01580070827795025</v>
+      </c>
+      <c r="H20">
+        <v>-0.0470033905616412</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02588265805573713</v>
+        <v>0.02639077645976506</v>
       </c>
       <c r="C21">
-        <v>-0.003156339824264858</v>
+        <v>-0.009508293063818675</v>
       </c>
       <c r="D21">
-        <v>-0.02765168428486835</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02466187112192651</v>
+      </c>
+      <c r="E21">
+        <v>-0.04522612636963464</v>
+      </c>
+      <c r="F21">
+        <v>0.01434232495236452</v>
+      </c>
+      <c r="G21">
+        <v>-0.009212512393978285</v>
+      </c>
+      <c r="H21">
+        <v>0.04782859379386408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07819145454281311</v>
+        <v>0.07332831397630012</v>
       </c>
       <c r="C22">
-        <v>0.06090065091545361</v>
+        <v>0.03985839833507555</v>
       </c>
       <c r="D22">
-        <v>-0.1223123415861256</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0816054319258652</v>
+      </c>
+      <c r="E22">
+        <v>-0.5984553323542783</v>
+      </c>
+      <c r="F22">
+        <v>0.1720630486305888</v>
+      </c>
+      <c r="G22">
+        <v>0.0715556101753477</v>
+      </c>
+      <c r="H22">
+        <v>0.1564310156580535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.07914659020640173</v>
+        <v>0.07407253395572558</v>
       </c>
       <c r="C23">
-        <v>0.05964798965566268</v>
+        <v>0.03834044053041048</v>
       </c>
       <c r="D23">
-        <v>-0.123858584971797</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.08257255972876922</v>
+      </c>
+      <c r="E23">
+        <v>-0.597749378023727</v>
+      </c>
+      <c r="F23">
+        <v>0.1710805002931167</v>
+      </c>
+      <c r="G23">
+        <v>0.07036295508863948</v>
+      </c>
+      <c r="H23">
+        <v>0.1520914646899185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07352134182774642</v>
+        <v>0.08071154559843405</v>
       </c>
       <c r="C24">
-        <v>0.05210259299266023</v>
+        <v>0.0354191331209339</v>
       </c>
       <c r="D24">
-        <v>-0.06077545793324422</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06064337535860972</v>
+      </c>
+      <c r="E24">
+        <v>-0.01750431384697962</v>
+      </c>
+      <c r="F24">
+        <v>-0.035970476273703</v>
+      </c>
+      <c r="G24">
+        <v>-0.01280406509452264</v>
+      </c>
+      <c r="H24">
+        <v>-0.05083918023322146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07284094355338813</v>
+        <v>0.07854480643338647</v>
       </c>
       <c r="C25">
-        <v>0.05543825308990323</v>
+        <v>0.03825060232070155</v>
       </c>
       <c r="D25">
-        <v>-0.06774541716735916</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05300063835128653</v>
+      </c>
+      <c r="E25">
+        <v>-0.01950264607321159</v>
+      </c>
+      <c r="F25">
+        <v>-0.02599393865472448</v>
+      </c>
+      <c r="G25">
+        <v>-0.0202810067385499</v>
+      </c>
+      <c r="H25">
+        <v>-0.05517800929594305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04612921221815869</v>
+        <v>0.04812892782387421</v>
       </c>
       <c r="C26">
-        <v>0.009784102871010966</v>
+        <v>0.002966324265875805</v>
       </c>
       <c r="D26">
-        <v>-0.01334138312950323</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01717400474748787</v>
+      </c>
+      <c r="E26">
+        <v>-0.04756949595703405</v>
+      </c>
+      <c r="F26">
+        <v>-0.02859103699046488</v>
+      </c>
+      <c r="G26">
+        <v>0.008170325900942811</v>
+      </c>
+      <c r="H26">
+        <v>-0.0597041599675658</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05257269208937358</v>
+        <v>0.06088282247541357</v>
       </c>
       <c r="C28">
-        <v>0.0640019209607995</v>
+        <v>0.08337732753060574</v>
       </c>
       <c r="D28">
-        <v>0.3105380883780501</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.3066877711420178</v>
+      </c>
+      <c r="E28">
+        <v>-0.03301792594921637</v>
+      </c>
+      <c r="F28">
+        <v>-0.05395606454354576</v>
+      </c>
+      <c r="G28">
+        <v>-0.02846395733487204</v>
+      </c>
+      <c r="H28">
+        <v>0.04302727821899563</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04226021158852228</v>
+        <v>0.04856846304961217</v>
       </c>
       <c r="C29">
-        <v>0.02895860520277732</v>
+        <v>0.02491491406856284</v>
       </c>
       <c r="D29">
-        <v>-0.009111189614234844</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.007875521267902355</v>
+      </c>
+      <c r="E29">
+        <v>-0.06114261907827849</v>
+      </c>
+      <c r="F29">
+        <v>-0.01095889699583936</v>
+      </c>
+      <c r="G29">
+        <v>0.008083131381215672</v>
+      </c>
+      <c r="H29">
+        <v>-0.07696111792964846</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.126611066305264</v>
+        <v>0.1306901477447032</v>
       </c>
       <c r="C30">
-        <v>0.08855175103013309</v>
+        <v>0.06309406643085842</v>
       </c>
       <c r="D30">
-        <v>-0.10075152343537</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.06870927915895418</v>
+      </c>
+      <c r="E30">
+        <v>-0.0793298821969983</v>
+      </c>
+      <c r="F30">
+        <v>0.008755590286361669</v>
+      </c>
+      <c r="G30">
+        <v>-0.08192450996365609</v>
+      </c>
+      <c r="H30">
+        <v>0.04321849764426868</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04410608958844806</v>
+        <v>0.04914432716362783</v>
       </c>
       <c r="C31">
-        <v>0.02282225115606221</v>
+        <v>0.01499093688594623</v>
       </c>
       <c r="D31">
-        <v>-0.02191412765593096</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02711055536744455</v>
+      </c>
+      <c r="E31">
+        <v>-0.02399054084218791</v>
+      </c>
+      <c r="F31">
+        <v>-0.0130829833837184</v>
+      </c>
+      <c r="G31">
+        <v>0.02423159374267161</v>
+      </c>
+      <c r="H31">
+        <v>-0.06390317989964146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.0385018327886942</v>
+        <v>0.03937077419976235</v>
       </c>
       <c r="C32">
-        <v>0.02878134840677149</v>
+        <v>0.02339055987908939</v>
       </c>
       <c r="D32">
-        <v>-0.02146563964121015</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01013723384357323</v>
+      </c>
+      <c r="E32">
+        <v>-0.04856236049349696</v>
+      </c>
+      <c r="F32">
+        <v>0.008725774530739798</v>
+      </c>
+      <c r="G32">
+        <v>-0.02653811568855722</v>
+      </c>
+      <c r="H32">
+        <v>-0.06982653703476005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.084572262013386</v>
+        <v>0.09596129958048935</v>
       </c>
       <c r="C33">
-        <v>0.0423600381661525</v>
+        <v>0.02772144778560194</v>
       </c>
       <c r="D33">
-        <v>-0.05958041975565702</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04592997837839047</v>
+      </c>
+      <c r="E33">
+        <v>-0.01353033596130046</v>
+      </c>
+      <c r="F33">
+        <v>-0.00608708475085387</v>
+      </c>
+      <c r="G33">
+        <v>0.006043451574988557</v>
+      </c>
+      <c r="H33">
+        <v>-0.05491172400078894</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05812852939733696</v>
+        <v>0.06366355294437223</v>
       </c>
       <c r="C34">
-        <v>0.02710218752007046</v>
+        <v>0.0134742139578037</v>
       </c>
       <c r="D34">
-        <v>-0.05747728317052643</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05195636538885817</v>
+      </c>
+      <c r="E34">
+        <v>-0.007209845677857107</v>
+      </c>
+      <c r="F34">
+        <v>-0.01680112920676394</v>
+      </c>
+      <c r="G34">
+        <v>0.001287763100959704</v>
+      </c>
+      <c r="H34">
+        <v>-0.06065966246890234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03791851952704814</v>
+        <v>0.04009909596159732</v>
       </c>
       <c r="C35">
-        <v>0.007278750390437951</v>
+        <v>0.003223597183149564</v>
       </c>
       <c r="D35">
-        <v>-0.01540848464936473</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.008999733829407218</v>
+      </c>
+      <c r="E35">
+        <v>-0.01919702313108101</v>
+      </c>
+      <c r="F35">
+        <v>0.01342147115230459</v>
+      </c>
+      <c r="G35">
+        <v>0.008107354561040763</v>
+      </c>
+      <c r="H35">
+        <v>-0.0171807865891971</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02293556605968158</v>
+        <v>0.0290380282985708</v>
       </c>
       <c r="C36">
-        <v>0.01598518815877675</v>
+        <v>0.01339438000545174</v>
       </c>
       <c r="D36">
-        <v>-0.02302502646801236</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01584847849591178</v>
+      </c>
+      <c r="E36">
+        <v>-0.03411388906580087</v>
+      </c>
+      <c r="F36">
+        <v>-0.02286479093609885</v>
+      </c>
+      <c r="G36">
+        <v>0.007109252946966332</v>
+      </c>
+      <c r="H36">
+        <v>-0.04941484628371594</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04098726922220158</v>
+        <v>0.04449875880759228</v>
       </c>
       <c r="C38">
-        <v>0.002241158735341775</v>
+        <v>-0.002660405396191117</v>
       </c>
       <c r="D38">
-        <v>-0.01805962191879344</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01761369295701103</v>
+      </c>
+      <c r="E38">
+        <v>-0.05289030074294347</v>
+      </c>
+      <c r="F38">
+        <v>0.006343207005035042</v>
+      </c>
+      <c r="G38">
+        <v>-0.009944247418343525</v>
+      </c>
+      <c r="H38">
+        <v>-0.03793948478571855</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09258035765385987</v>
+        <v>0.1023396287852866</v>
       </c>
       <c r="C39">
-        <v>0.07151423706917162</v>
+        <v>0.05128710848712469</v>
       </c>
       <c r="D39">
-        <v>-0.05706410955234649</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06104455352279331</v>
+      </c>
+      <c r="E39">
+        <v>-0.005111322479391096</v>
+      </c>
+      <c r="F39">
+        <v>8.727819206731676e-05</v>
+      </c>
+      <c r="G39">
+        <v>-0.03562583547076326</v>
+      </c>
+      <c r="H39">
+        <v>-0.04515062844463048</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.07746079424132447</v>
+        <v>0.07131904583778828</v>
       </c>
       <c r="C40">
-        <v>0.03490554339755192</v>
+        <v>0.01614048516294324</v>
       </c>
       <c r="D40">
-        <v>0.002230260545859137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.008499796106321428</v>
+      </c>
+      <c r="E40">
+        <v>-0.01870402148178199</v>
+      </c>
+      <c r="F40">
+        <v>0.05945404371224976</v>
+      </c>
+      <c r="G40">
+        <v>-0.06016551455374805</v>
+      </c>
+      <c r="H40">
+        <v>0.09593100064868376</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04164748507023835</v>
+        <v>0.04484396842523828</v>
       </c>
       <c r="C41">
-        <v>0.004603075243856956</v>
+        <v>-0.001664300367900827</v>
       </c>
       <c r="D41">
-        <v>-0.03466214061988604</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03177833250488354</v>
+      </c>
+      <c r="E41">
+        <v>0.0001430435252138002</v>
+      </c>
+      <c r="F41">
+        <v>0.01430413731929735</v>
+      </c>
+      <c r="G41">
+        <v>-0.009753184043474068</v>
+      </c>
+      <c r="H41">
+        <v>-0.03480652797710321</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.05080019908881141</v>
+        <v>0.05950313350060531</v>
       </c>
       <c r="C43">
-        <v>0.02552412328411611</v>
+        <v>0.01857159662225804</v>
       </c>
       <c r="D43">
-        <v>-0.01551721052431813</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02332212284858995</v>
+      </c>
+      <c r="E43">
+        <v>-0.02160784098773647</v>
+      </c>
+      <c r="F43">
+        <v>-0.01374912904543769</v>
+      </c>
+      <c r="G43">
+        <v>0.01711135162172444</v>
+      </c>
+      <c r="H43">
+        <v>-0.05647504997392145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09575603185137563</v>
+        <v>0.09710917248754942</v>
       </c>
       <c r="C44">
-        <v>0.08959713088614654</v>
+        <v>0.06596319520696566</v>
       </c>
       <c r="D44">
-        <v>-0.07911558967189798</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05662149350660866</v>
+      </c>
+      <c r="E44">
+        <v>-0.08496058670531115</v>
+      </c>
+      <c r="F44">
+        <v>-0.05214498158556338</v>
+      </c>
+      <c r="G44">
+        <v>-0.02714932754580875</v>
+      </c>
+      <c r="H44">
+        <v>-0.01152681857291142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02572141983115305</v>
+        <v>0.03429901528433271</v>
       </c>
       <c r="C46">
-        <v>0.01519506237456726</v>
+        <v>0.01253238904400663</v>
       </c>
       <c r="D46">
-        <v>-0.02599593052119221</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03380720778304529</v>
+      </c>
+      <c r="E46">
+        <v>-0.03494208242262683</v>
+      </c>
+      <c r="F46">
+        <v>-0.01602954184246301</v>
+      </c>
+      <c r="G46">
+        <v>0.007492392768147714</v>
+      </c>
+      <c r="H46">
+        <v>-0.03696155572615465</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.0303374423047265</v>
+        <v>0.03786815769462135</v>
       </c>
       <c r="C47">
-        <v>0.02492357113054941</v>
+        <v>0.02107466969764541</v>
       </c>
       <c r="D47">
-        <v>-0.01148929185602093</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.00990285700186771</v>
+      </c>
+      <c r="E47">
+        <v>-0.04601200457557981</v>
+      </c>
+      <c r="F47">
+        <v>-0.008475627859735206</v>
+      </c>
+      <c r="G47">
+        <v>0.04377234928153489</v>
+      </c>
+      <c r="H47">
+        <v>-0.0264608090077723</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03415045324319075</v>
+        <v>0.03875962690089503</v>
       </c>
       <c r="C48">
-        <v>0.01732475545560313</v>
+        <v>0.01059038096342977</v>
       </c>
       <c r="D48">
-        <v>-0.03130160541464806</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.019546385737225</v>
+      </c>
+      <c r="E48">
+        <v>-0.04084974433262369</v>
+      </c>
+      <c r="F48">
+        <v>-0.007635191292607485</v>
+      </c>
+      <c r="G48">
+        <v>-0.01311773792219674</v>
+      </c>
+      <c r="H48">
+        <v>-0.04267956571615027</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1616023521891205</v>
+        <v>0.1895212041769437</v>
       </c>
       <c r="C49">
-        <v>0.05177953511054102</v>
+        <v>0.03324965466641721</v>
       </c>
       <c r="D49">
-        <v>0.007947403550885444</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02652096650085284</v>
+      </c>
+      <c r="E49">
+        <v>0.1550237105905318</v>
+      </c>
+      <c r="F49">
+        <v>-0.06140509458639068</v>
+      </c>
+      <c r="G49">
+        <v>0.06149979170810083</v>
+      </c>
+      <c r="H49">
+        <v>0.2297419696632177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.04053399579663316</v>
+        <v>0.04626413919914925</v>
       </c>
       <c r="C50">
-        <v>0.02133191838134448</v>
+        <v>0.01462903464025652</v>
       </c>
       <c r="D50">
-        <v>-0.04008365295890964</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03351335842060683</v>
+      </c>
+      <c r="E50">
+        <v>-0.0428865158900604</v>
+      </c>
+      <c r="F50">
+        <v>-0.01442448481242757</v>
+      </c>
+      <c r="G50">
+        <v>0.02254480077810686</v>
+      </c>
+      <c r="H50">
+        <v>-0.06604204816504385</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02828629708831691</v>
+        <v>0.03064664454128886</v>
       </c>
       <c r="C51">
-        <v>0.01030005163693164</v>
+        <v>0.004553348853877149</v>
       </c>
       <c r="D51">
-        <v>-0.009081299428165648</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01063062414660475</v>
+      </c>
+      <c r="E51">
+        <v>-0.01391832616697447</v>
+      </c>
+      <c r="F51">
+        <v>-0.01641664984816433</v>
+      </c>
+      <c r="G51">
+        <v>0.0009332147105003082</v>
+      </c>
+      <c r="H51">
+        <v>-0.0004382820734228948</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1534749670840623</v>
+        <v>0.1630680709453549</v>
       </c>
       <c r="C53">
-        <v>0.07259804945266686</v>
+        <v>0.05045006268482206</v>
       </c>
       <c r="D53">
-        <v>-0.009496937601730194</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01791484751686336</v>
+      </c>
+      <c r="E53">
+        <v>0.02981217718975267</v>
+      </c>
+      <c r="F53">
+        <v>-0.0178868558195311</v>
+      </c>
+      <c r="G53">
+        <v>0.02457409022324375</v>
+      </c>
+      <c r="H53">
+        <v>-0.1758219445201588</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05790147685234967</v>
+        <v>0.05860283268410294</v>
       </c>
       <c r="C54">
-        <v>0.02483987955904693</v>
+        <v>0.01401117371317268</v>
       </c>
       <c r="D54">
-        <v>-0.02110437505063537</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0148951591928016</v>
+      </c>
+      <c r="E54">
+        <v>-0.04590905545178582</v>
+      </c>
+      <c r="F54">
+        <v>-0.007265125719055778</v>
+      </c>
+      <c r="G54">
+        <v>-0.01478918268664259</v>
+      </c>
+      <c r="H54">
+        <v>-0.05197168990551254</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09925197088425762</v>
+        <v>0.1039883630753169</v>
       </c>
       <c r="C55">
-        <v>0.05001970636741767</v>
+        <v>0.0340728834941576</v>
       </c>
       <c r="D55">
-        <v>-0.01983974144212706</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02249856753776363</v>
+      </c>
+      <c r="E55">
+        <v>-0.01092421193100673</v>
+      </c>
+      <c r="F55">
+        <v>-0.01639886750091115</v>
+      </c>
+      <c r="G55">
+        <v>0.01613816347361199</v>
+      </c>
+      <c r="H55">
+        <v>-0.152943650936746</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1500325719437879</v>
+        <v>0.1620450307261358</v>
       </c>
       <c r="C56">
-        <v>0.08670551193892274</v>
+        <v>0.06324229379473874</v>
       </c>
       <c r="D56">
-        <v>-0.01466832367623478</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02119126793476836</v>
+      </c>
+      <c r="E56">
+        <v>0.02249758403389932</v>
+      </c>
+      <c r="F56">
+        <v>-0.03191305496075748</v>
+      </c>
+      <c r="G56">
+        <v>0.03920224795242024</v>
+      </c>
+      <c r="H56">
+        <v>-0.1719305830032137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1299844635397121</v>
+        <v>0.1009693958250227</v>
       </c>
       <c r="C58">
-        <v>-0.0009348790433620107</v>
+        <v>-0.0420645269273912</v>
       </c>
       <c r="D58">
-        <v>-0.03096453275497021</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03409300033707993</v>
+      </c>
+      <c r="E58">
+        <v>-0.1423476239958896</v>
+      </c>
+      <c r="F58">
+        <v>0.006877922362972392</v>
+      </c>
+      <c r="G58">
+        <v>0.01259890079379424</v>
+      </c>
+      <c r="H58">
+        <v>0.2270308170147367</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1218415588434952</v>
+        <v>0.1356169648274534</v>
       </c>
       <c r="C59">
-        <v>0.07304040931325503</v>
+        <v>0.09091841651326144</v>
       </c>
       <c r="D59">
-        <v>0.3668113031319946</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3647448214941263</v>
+      </c>
+      <c r="E59">
+        <v>-0.02757021101814434</v>
+      </c>
+      <c r="F59">
+        <v>-0.01447984175462558</v>
+      </c>
+      <c r="G59">
+        <v>0.01836715729920934</v>
+      </c>
+      <c r="H59">
+        <v>0.0008031611915258263</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.204787138764995</v>
+        <v>0.2336956450690426</v>
       </c>
       <c r="C60">
-        <v>0.09420086607134262</v>
+        <v>0.06581601822651066</v>
       </c>
       <c r="D60">
-        <v>-0.02059665804332355</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.0436029464594942</v>
+      </c>
+      <c r="E60">
+        <v>0.09872782025858265</v>
+      </c>
+      <c r="F60">
+        <v>-0.05703293324195412</v>
+      </c>
+      <c r="G60">
+        <v>-0.02052111995473617</v>
+      </c>
+      <c r="H60">
+        <v>0.1451198881941323</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.08234228396933885</v>
+        <v>0.0892382708758724</v>
       </c>
       <c r="C61">
-        <v>0.05143302898360076</v>
+        <v>0.03747292185720969</v>
       </c>
       <c r="D61">
-        <v>-0.04414790183055838</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04121073706470366</v>
+      </c>
+      <c r="E61">
+        <v>-0.00062338705563962</v>
+      </c>
+      <c r="F61">
+        <v>-0.001245425611048632</v>
+      </c>
+      <c r="G61">
+        <v>0.0004957282566564928</v>
+      </c>
+      <c r="H61">
+        <v>-0.06267456629351661</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1301865068470721</v>
+        <v>0.1387073271248258</v>
       </c>
       <c r="C62">
-        <v>0.05957583136382013</v>
+        <v>0.03750614669895651</v>
       </c>
       <c r="D62">
-        <v>-0.01947181262641957</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.03217555736974701</v>
+      </c>
+      <c r="E62">
+        <v>0.05852966167438093</v>
+      </c>
+      <c r="F62">
+        <v>-0.01186872591863243</v>
+      </c>
+      <c r="G62">
+        <v>-0.0006686119366963439</v>
+      </c>
+      <c r="H62">
+        <v>-0.1786109781197836</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05164756385582209</v>
+        <v>0.05139576005011076</v>
       </c>
       <c r="C63">
-        <v>0.02323848194867071</v>
+        <v>0.01295571366921339</v>
       </c>
       <c r="D63">
-        <v>-0.02159503755599077</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01943243657363668</v>
+      </c>
+      <c r="E63">
+        <v>-0.04845848378289239</v>
+      </c>
+      <c r="F63">
+        <v>0.006792266201079942</v>
+      </c>
+      <c r="G63">
+        <v>-0.02028328372938474</v>
+      </c>
+      <c r="H63">
+        <v>-0.05317364376052882</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1046922174475287</v>
+        <v>0.1088445598834242</v>
       </c>
       <c r="C64">
-        <v>0.03098696899923503</v>
+        <v>0.01530206533326683</v>
       </c>
       <c r="D64">
-        <v>-0.04349466307015391</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03088927414602529</v>
+      </c>
+      <c r="E64">
+        <v>-0.03173080891702516</v>
+      </c>
+      <c r="F64">
+        <v>-0.03995096790449943</v>
+      </c>
+      <c r="G64">
+        <v>-0.04677927298832936</v>
+      </c>
+      <c r="H64">
+        <v>-0.04675707054622652</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1266816291715072</v>
+        <v>0.1263987435870914</v>
       </c>
       <c r="C65">
-        <v>0.0590496132571272</v>
+        <v>0.03840513072805041</v>
       </c>
       <c r="D65">
-        <v>0.0152094933011934</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.008180639195578116</v>
+      </c>
+      <c r="E65">
+        <v>-0.003591481928208086</v>
+      </c>
+      <c r="F65">
+        <v>-0.05395979741301542</v>
+      </c>
+      <c r="G65">
+        <v>-0.06198977571051328</v>
+      </c>
+      <c r="H65">
+        <v>0.148731727130916</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1476589035469444</v>
+        <v>0.1547658890210791</v>
       </c>
       <c r="C66">
-        <v>0.07019064967733639</v>
+        <v>0.04209958247914498</v>
       </c>
       <c r="D66">
-        <v>-0.1113482269012672</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09551860340814113</v>
+      </c>
+      <c r="E66">
+        <v>0.02278700346876964</v>
+      </c>
+      <c r="F66">
+        <v>-0.01018220382759982</v>
+      </c>
+      <c r="G66">
+        <v>-0.04089416516623396</v>
+      </c>
+      <c r="H66">
+        <v>-0.11397841316488</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07413171225758748</v>
+        <v>0.08451199725552427</v>
       </c>
       <c r="C67">
-        <v>0.01087621226499195</v>
+        <v>0.002735826054680894</v>
       </c>
       <c r="D67">
-        <v>-0.02091207881316475</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02939259928374818</v>
+      </c>
+      <c r="E67">
+        <v>-0.02091839066251043</v>
+      </c>
+      <c r="F67">
+        <v>-0.0208421933748374</v>
+      </c>
+      <c r="G67">
+        <v>0.008704357817416535</v>
+      </c>
+      <c r="H67">
+        <v>-0.04143843887700584</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05850552455634899</v>
+        <v>0.05667298123293451</v>
       </c>
       <c r="C68">
-        <v>0.04523300755908841</v>
+        <v>0.06075676432659041</v>
       </c>
       <c r="D68">
-        <v>0.2547685054120767</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2696409707137006</v>
+      </c>
+      <c r="E68">
+        <v>-0.03850774301654807</v>
+      </c>
+      <c r="F68">
+        <v>-0.01456648700611956</v>
+      </c>
+      <c r="G68">
+        <v>0.01369046994346403</v>
+      </c>
+      <c r="H68">
+        <v>-0.007301854322388853</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.0519415232788465</v>
+        <v>0.05292898036140208</v>
       </c>
       <c r="C69">
-        <v>0.01655252407262233</v>
+        <v>0.005949104230554619</v>
       </c>
       <c r="D69">
-        <v>-0.0203626731782461</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01592118471500412</v>
+      </c>
+      <c r="E69">
+        <v>-0.02604465949871695</v>
+      </c>
+      <c r="F69">
+        <v>0.008036662705275015</v>
+      </c>
+      <c r="G69">
+        <v>0.02353649343183326</v>
+      </c>
+      <c r="H69">
+        <v>-0.04882519137580969</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.004050282996784536</v>
+        <v>0.02702537105452826</v>
       </c>
       <c r="C70">
-        <v>-0.005127791639927011</v>
+        <v>4.897524156189859e-05</v>
       </c>
       <c r="D70">
-        <v>-0.003673207026638026</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.005422365791601267</v>
+      </c>
+      <c r="E70">
+        <v>0.02302856817717291</v>
+      </c>
+      <c r="F70">
+        <v>-0.01391402141122658</v>
+      </c>
+      <c r="G70">
+        <v>0.02810916472397202</v>
+      </c>
+      <c r="H70">
+        <v>0.02405696487818552</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05805968487965349</v>
+        <v>0.05859802175862083</v>
       </c>
       <c r="C71">
-        <v>0.04523495717204073</v>
+        <v>0.06513787125502045</v>
       </c>
       <c r="D71">
-        <v>0.2938029885542502</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2949937550772244</v>
+      </c>
+      <c r="E71">
+        <v>-0.03474607273738076</v>
+      </c>
+      <c r="F71">
+        <v>-0.0431935868678455</v>
+      </c>
+      <c r="G71">
+        <v>0.002139025296225415</v>
+      </c>
+      <c r="H71">
+        <v>-0.008747050361818262</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1414222511592619</v>
+        <v>0.1438789512147376</v>
       </c>
       <c r="C72">
-        <v>0.06250518078619245</v>
+        <v>0.03578388397055241</v>
       </c>
       <c r="D72">
-        <v>-0.001140726467391403</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.002368952506865319</v>
+      </c>
+      <c r="E72">
+        <v>0.08730648580313764</v>
+      </c>
+      <c r="F72">
+        <v>0.1646571004360827</v>
+      </c>
+      <c r="G72">
+        <v>-0.1196109578277222</v>
+      </c>
+      <c r="H72">
+        <v>-0.01588338692165432</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2836065445701632</v>
+        <v>0.289357483695562</v>
       </c>
       <c r="C73">
-        <v>0.1022890602991515</v>
+        <v>0.0410694689737861</v>
       </c>
       <c r="D73">
-        <v>-0.04224026585041609</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09161306339208784</v>
+      </c>
+      <c r="E73">
+        <v>0.2131483242820381</v>
+      </c>
+      <c r="F73">
+        <v>-0.0968975682563379</v>
+      </c>
+      <c r="G73">
+        <v>0.1347553745917032</v>
+      </c>
+      <c r="H73">
+        <v>0.5103867666578281</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.08016374582642065</v>
+        <v>0.09156804015337269</v>
       </c>
       <c r="C74">
-        <v>0.07624817588319747</v>
+        <v>0.06178677960757571</v>
       </c>
       <c r="D74">
-        <v>-0.01027646291986573</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02978006681213556</v>
+      </c>
+      <c r="E74">
+        <v>0.003676695373593687</v>
+      </c>
+      <c r="F74">
+        <v>-0.001878538383198326</v>
+      </c>
+      <c r="G74">
+        <v>0.05478219117643923</v>
+      </c>
+      <c r="H74">
+        <v>-0.1110610550471295</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.095978872703515</v>
+        <v>0.1013015768149191</v>
       </c>
       <c r="C75">
-        <v>0.04935633577544732</v>
+        <v>0.02772746005484702</v>
       </c>
       <c r="D75">
-        <v>-0.005136201708468065</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.0141529385115204</v>
+      </c>
+      <c r="E75">
+        <v>-0.003226457787170304</v>
+      </c>
+      <c r="F75">
+        <v>-0.02332299118629739</v>
+      </c>
+      <c r="G75">
+        <v>0.02545781296531936</v>
+      </c>
+      <c r="H75">
+        <v>-0.1122132310893341</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1308601114834581</v>
+        <v>0.1411681572315481</v>
       </c>
       <c r="C76">
-        <v>0.08210468830744395</v>
+        <v>0.05990123954600307</v>
       </c>
       <c r="D76">
-        <v>-0.04281093547732241</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04746191924187425</v>
+      </c>
+      <c r="E76">
+        <v>-0.01742224209573964</v>
+      </c>
+      <c r="F76">
+        <v>-0.04692324275962297</v>
+      </c>
+      <c r="G76">
+        <v>0.01686791843082889</v>
+      </c>
+      <c r="H76">
+        <v>-0.1939611477626198</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1167725433035594</v>
+        <v>0.1079330397269852</v>
       </c>
       <c r="C77">
-        <v>0.009800490137074005</v>
+        <v>-0.01672910199762059</v>
       </c>
       <c r="D77">
-        <v>-0.06376938520626135</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.02342171236740432</v>
+      </c>
+      <c r="E77">
+        <v>-0.02213499346550101</v>
+      </c>
+      <c r="F77">
+        <v>-0.1042926391975238</v>
+      </c>
+      <c r="G77">
+        <v>-0.8902918670576866</v>
+      </c>
+      <c r="H77">
+        <v>0.08486585414774292</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.1051432297002864</v>
+        <v>0.1444366343730034</v>
       </c>
       <c r="C78">
-        <v>0.0380846016891937</v>
+        <v>0.03439963935412547</v>
       </c>
       <c r="D78">
-        <v>-0.08381209139749102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07968154197524048</v>
+      </c>
+      <c r="E78">
+        <v>-0.05519227399189824</v>
+      </c>
+      <c r="F78">
+        <v>-0.04912274349046369</v>
+      </c>
+      <c r="G78">
+        <v>-0.0861088292115543</v>
+      </c>
+      <c r="H78">
+        <v>0.02864727365729793</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1475217494569372</v>
+        <v>0.1516192503212625</v>
       </c>
       <c r="C79">
-        <v>0.0668138987769014</v>
+        <v>0.03958155257846651</v>
       </c>
       <c r="D79">
-        <v>-0.02647288769279337</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02635118058317012</v>
+      </c>
+      <c r="E79">
+        <v>0.01810698388923452</v>
+      </c>
+      <c r="F79">
+        <v>-0.02273649849672409</v>
+      </c>
+      <c r="G79">
+        <v>0.04270774531898512</v>
+      </c>
+      <c r="H79">
+        <v>-0.1684282019242272</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04214065142459878</v>
+        <v>0.04318350242380074</v>
       </c>
       <c r="C80">
-        <v>0.02028857395961811</v>
+        <v>0.01502296089484779</v>
       </c>
       <c r="D80">
-        <v>-0.02836492976092542</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0119890374968675</v>
+      </c>
+      <c r="E80">
+        <v>0.02950780777469656</v>
+      </c>
+      <c r="F80">
+        <v>-0.008978810225998982</v>
+      </c>
+      <c r="G80">
+        <v>0.02305230347199563</v>
+      </c>
+      <c r="H80">
+        <v>-0.03747011623459721</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1180094762820376</v>
+        <v>0.1201762054453788</v>
       </c>
       <c r="C81">
-        <v>0.06094924380085061</v>
+        <v>0.03814226342904945</v>
       </c>
       <c r="D81">
-        <v>-0.02945062158875889</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.02280226907142063</v>
+      </c>
+      <c r="E81">
+        <v>-0.009118625075536372</v>
+      </c>
+      <c r="F81">
+        <v>-0.01957578341060469</v>
+      </c>
+      <c r="G81">
+        <v>0.0585108818776162</v>
+      </c>
+      <c r="H81">
+        <v>-0.1512219678267305</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1306764911010269</v>
+        <v>0.1319599668350256</v>
       </c>
       <c r="C82">
-        <v>0.07072225510203231</v>
+        <v>0.04787763762968571</v>
       </c>
       <c r="D82">
-        <v>-0.01437404588353978</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.02373593491750073</v>
+      </c>
+      <c r="E82">
+        <v>0.01541435891495895</v>
+      </c>
+      <c r="F82">
+        <v>-0.05699721955423787</v>
+      </c>
+      <c r="G82">
+        <v>0.05402847750198991</v>
+      </c>
+      <c r="H82">
+        <v>-0.2131742061711576</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.07493177570108905</v>
+        <v>0.0859125747732097</v>
       </c>
       <c r="C83">
-        <v>-0.01507325121190421</v>
+        <v>-0.02768777588830001</v>
       </c>
       <c r="D83">
-        <v>-0.0293957433638539</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03213145937367071</v>
+      </c>
+      <c r="E83">
+        <v>-0.01946525527823884</v>
+      </c>
+      <c r="F83">
+        <v>-0.05819625771664631</v>
+      </c>
+      <c r="G83">
+        <v>0.07611307254212628</v>
+      </c>
+      <c r="H83">
+        <v>0.04877350425573531</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02925397949878797</v>
+        <v>0.03710980642992292</v>
       </c>
       <c r="C84">
-        <v>0.02914931966943391</v>
+        <v>0.02373071453686865</v>
       </c>
       <c r="D84">
-        <v>-0.02779545423981489</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03189993298439274</v>
+      </c>
+      <c r="E84">
+        <v>-0.02716751415757434</v>
+      </c>
+      <c r="F84">
+        <v>0.05103657039487967</v>
+      </c>
+      <c r="G84">
+        <v>0.06425669480030083</v>
+      </c>
+      <c r="H84">
+        <v>-0.004638956737267045</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1208022634746193</v>
+        <v>0.1224690418020305</v>
       </c>
       <c r="C85">
-        <v>0.04718554912729366</v>
+        <v>0.0247578381337472</v>
       </c>
       <c r="D85">
-        <v>-0.01516115103175686</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01970917186886292</v>
+      </c>
+      <c r="E85">
+        <v>-0.01417417523508023</v>
+      </c>
+      <c r="F85">
+        <v>-0.03831062481646076</v>
+      </c>
+      <c r="G85">
+        <v>0.03502583855981153</v>
+      </c>
+      <c r="H85">
+        <v>-0.1542775775967533</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05351362432227146</v>
+        <v>0.05866154553742076</v>
       </c>
       <c r="C86">
-        <v>0.02192394081478348</v>
+        <v>0.01252460012169807</v>
       </c>
       <c r="D86">
-        <v>-0.03266843259111568</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.02905978932228861</v>
+      </c>
+      <c r="E86">
+        <v>-0.05683499296483246</v>
+      </c>
+      <c r="F86">
+        <v>-0.02879331074252088</v>
+      </c>
+      <c r="G86">
+        <v>0.02452248505981131</v>
+      </c>
+      <c r="H86">
+        <v>0.009907158121646664</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1177079543901918</v>
+        <v>0.1218860894657749</v>
       </c>
       <c r="C87">
-        <v>0.06998078299777692</v>
+        <v>0.03917852290752048</v>
       </c>
       <c r="D87">
-        <v>-0.07715292191646091</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07041803802994462</v>
+      </c>
+      <c r="E87">
+        <v>-0.01932840250208525</v>
+      </c>
+      <c r="F87">
+        <v>-0.007500794028152692</v>
+      </c>
+      <c r="G87">
+        <v>-0.139004974957132</v>
+      </c>
+      <c r="H87">
+        <v>0.03351266878576668</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05277443229959046</v>
+        <v>0.06083944849414119</v>
       </c>
       <c r="C88">
-        <v>0.02914249317351579</v>
+        <v>0.02128172034400543</v>
       </c>
       <c r="D88">
-        <v>-0.02235021452659671</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03242181208760684</v>
+      </c>
+      <c r="E88">
+        <v>-0.01801046268425839</v>
+      </c>
+      <c r="F88">
+        <v>-0.01129945582951967</v>
+      </c>
+      <c r="G88">
+        <v>-0.005482246796420604</v>
+      </c>
+      <c r="H88">
+        <v>-0.05576190410320429</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08793576012812047</v>
+        <v>0.09439071405128462</v>
       </c>
       <c r="C89">
-        <v>0.06759586771631573</v>
+        <v>0.08825039739958157</v>
       </c>
       <c r="D89">
-        <v>0.3266424030204313</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3490858025106892</v>
+      </c>
+      <c r="E89">
+        <v>-0.07159127422461332</v>
+      </c>
+      <c r="F89">
+        <v>-0.07714271069464035</v>
+      </c>
+      <c r="G89">
+        <v>0.02062235950511205</v>
+      </c>
+      <c r="H89">
+        <v>-0.002702965631308108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07425195579602849</v>
+        <v>0.07722261286627817</v>
       </c>
       <c r="C90">
-        <v>0.05459538115538622</v>
+        <v>0.07148149675805952</v>
       </c>
       <c r="D90">
-        <v>0.3105864015455106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.3035985277515264</v>
+      </c>
+      <c r="E90">
+        <v>-0.06709421292017745</v>
+      </c>
+      <c r="F90">
+        <v>-0.00187568262771168</v>
+      </c>
+      <c r="G90">
+        <v>0.006444711797563269</v>
+      </c>
+      <c r="H90">
+        <v>-0.003039729477268052</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08857675729267138</v>
+        <v>0.09068285294014937</v>
       </c>
       <c r="C91">
-        <v>0.05223098651849516</v>
+        <v>0.03180650565635455</v>
       </c>
       <c r="D91">
-        <v>-0.02402297807833271</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03125389116988578</v>
+      </c>
+      <c r="E91">
+        <v>-0.007063870163042486</v>
+      </c>
+      <c r="F91">
+        <v>-0.004130577270103228</v>
+      </c>
+      <c r="G91">
+        <v>0.05136427188846893</v>
+      </c>
+      <c r="H91">
+        <v>-0.08457441899350544</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.07482302893919512</v>
+        <v>0.0772901049409508</v>
       </c>
       <c r="C92">
-        <v>0.07049776019512356</v>
+        <v>0.09004237688382513</v>
       </c>
       <c r="D92">
-        <v>0.3418469196569058</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3449175131895036</v>
+      </c>
+      <c r="E92">
+        <v>-0.04137442511672273</v>
+      </c>
+      <c r="F92">
+        <v>-0.04939524043758624</v>
+      </c>
+      <c r="G92">
+        <v>-0.01889862300563983</v>
+      </c>
+      <c r="H92">
+        <v>-0.01524304598187085</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06519592768012304</v>
+        <v>0.07417450748720168</v>
       </c>
       <c r="C93">
-        <v>0.06160554627863869</v>
+        <v>0.0848663357059852</v>
       </c>
       <c r="D93">
-        <v>0.3100276241141405</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.3068733257446492</v>
+      </c>
+      <c r="E93">
+        <v>-0.02464182360412783</v>
+      </c>
+      <c r="F93">
+        <v>-0.03853296090075331</v>
+      </c>
+      <c r="G93">
+        <v>-0.01786985469461416</v>
+      </c>
+      <c r="H93">
+        <v>0.01128631102317711</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.135209602832713</v>
+        <v>0.1289786595742235</v>
       </c>
       <c r="C94">
-        <v>0.04603897629055173</v>
+        <v>0.01541565618184269</v>
       </c>
       <c r="D94">
-        <v>-0.03534607258851196</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04487099298396535</v>
+      </c>
+      <c r="E94">
+        <v>0.01670013119523963</v>
+      </c>
+      <c r="F94">
+        <v>-0.015662420991988</v>
+      </c>
+      <c r="G94">
+        <v>0.0627365590609439</v>
+      </c>
+      <c r="H94">
+        <v>-0.1000712991841671</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1223329680934892</v>
+        <v>0.1275202808905427</v>
       </c>
       <c r="C95">
-        <v>0.02936213343467394</v>
+        <v>0.001754234648302555</v>
       </c>
       <c r="D95">
-        <v>-0.06600082094291529</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.07133354560316363</v>
+      </c>
+      <c r="E95">
+        <v>-0.01301561389291964</v>
+      </c>
+      <c r="F95">
+        <v>-0.03530651883649145</v>
+      </c>
+      <c r="G95">
+        <v>-0.0122967283432404</v>
+      </c>
+      <c r="H95">
+        <v>0.03033399219837404</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2185951283181111</v>
+        <v>0.2051028985098624</v>
       </c>
       <c r="C97">
-        <v>0.04548069720561938</v>
+        <v>0.0005047692800889507</v>
       </c>
       <c r="D97">
-        <v>0.1043871980957035</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.08504198152701542</v>
+      </c>
+      <c r="E97">
+        <v>0.2251831309980455</v>
+      </c>
+      <c r="F97">
+        <v>0.8995868691268251</v>
+      </c>
+      <c r="G97">
+        <v>-0.06842958979244999</v>
+      </c>
+      <c r="H97">
+        <v>-0.02026970981338616</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2511885127399223</v>
+        <v>0.2768919434912129</v>
       </c>
       <c r="C98">
-        <v>0.06347591931042235</v>
+        <v>0.02470214648290453</v>
       </c>
       <c r="D98">
-        <v>-0.03429283396377712</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05305211090291621</v>
+      </c>
+      <c r="E98">
+        <v>0.1795300532208911</v>
+      </c>
+      <c r="F98">
+        <v>-0.07263507661751782</v>
+      </c>
+      <c r="G98">
+        <v>0.2387218435544969</v>
+      </c>
+      <c r="H98">
+        <v>0.2460410296909557</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4155938433488906</v>
+        <v>0.276189363081085</v>
       </c>
       <c r="C99">
-        <v>-0.8928398168178237</v>
+        <v>-0.932894077636836</v>
       </c>
       <c r="D99">
-        <v>0.04576905906608933</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.1456876817976072</v>
+      </c>
+      <c r="E99">
+        <v>-0.07016781593473678</v>
+      </c>
+      <c r="F99">
+        <v>-0.05238696407610004</v>
+      </c>
+      <c r="G99">
+        <v>0.02419889719201092</v>
+      </c>
+      <c r="H99">
+        <v>-0.06818703781705332</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04210780617818008</v>
+        <v>0.04850863251062443</v>
       </c>
       <c r="C101">
-        <v>0.02908568467745432</v>
+        <v>0.02514343724572587</v>
       </c>
       <c r="D101">
-        <v>-0.009698795701179729</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.00802490925877606</v>
+      </c>
+      <c r="E101">
+        <v>-0.06111488863693997</v>
+      </c>
+      <c r="F101">
+        <v>-0.010658079838884</v>
+      </c>
+      <c r="G101">
+        <v>0.008482318999463615</v>
+      </c>
+      <c r="H101">
+        <v>-0.07576873119181486</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
